--- a/pred_ohlcv/54_21/2020-01-12 HYC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 HYC ohlcv.xlsx
@@ -1302,7 +1302,7 @@
         <v>427367.3736999997</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>402367.3736999997</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>331648.1382999998</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>299728.2494999997</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>86398.75769999978</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>86398.75769999978</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>101478.7576999998</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>92288.75769999978</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>93288.75769999978</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>93288.75769999978</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>93288.75769999978</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>137420.4232999998</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>133072.7762999998</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>510415.1728999998</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>516084.3379999998</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>416084.3379999998</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>416084.3379999998</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>416837.1537999997</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>416837.1537999997</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>395467.1537999997</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>416837.1537999997</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>16837.15379999974</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>83895.06829999974</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>123703.1954999997</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-149528.9455000003</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-985576.9459000003</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-906303.1637000003</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-906303.1637000003</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-906303.1637000003</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-906303.1637000003</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-906303.1637000003</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-1021612.7037</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-5595556.1368</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-5577970.793500001</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-8603475.81057745</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-8647083.97957745</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-8626947.683877449</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-9275024.94097745</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-9275024.94097745</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-9149681.989977451</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-9112931.514177451</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-9112931.514177451</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-9112931.514177451</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-9757241.514177451</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-8842807.17609187</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-10820237.10003891</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-10809710.52833891</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-10809710.52833891</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-10829970.52833891</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-12 HYC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 HYC ohlcv.xlsx
@@ -1406,7 +1406,7 @@
         <v>485794.5590999997</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>331648.1382999998</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>331648.1382999998</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>202558.2494999997</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>86398.75769999978</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>86398.75769999978</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>92288.75769999978</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>133072.7762999998</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>516084.3379999998</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>416084.3379999998</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>416084.3379999998</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>416837.1537999997</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>416837.1537999997</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>395467.1537999997</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>416837.1537999997</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>16837.15379999974</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>83895.06829999974</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>123703.1954999997</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-149528.9455000003</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-985576.9459000003</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-906303.1637000003</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-906303.1637000003</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-906303.1637000003</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-906303.1637000003</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-906303.1637000003</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-1021612.7037</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-5595556.1368</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-8087006.00187745</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-8428739.258877451</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-8431403.258877451</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-8603475.81057745</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-8647083.97957745</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-8626947.683877449</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-9275024.94097745</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-9275024.94097745</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-9149681.989977451</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-9112931.514177451</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-9112931.514177451</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-9112931.514177451</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-9757241.514177451</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-8842807.17609187</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-8870929.20139187</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-8870929.20139187</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-8942649.20139187</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-8897649.20139187</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-8897649.20139187</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-8897649.20139187</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-8897205.20139187</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-8897205.20139187</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-8858861.20139187</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-8858417.20139187</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-8428373.543091871</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-8151940.6450125</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-8072171.384418285</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-9376386.632218285</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-9347761.382643299</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-9361081.382643299</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-9253180.21763891</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-9431783.22303891</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-9431783.22303891</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-9701661.195038909</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-10262176.98313891</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-10248856.98313891</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-10247166.62623891</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-10247736.62623891</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-10240868.48983891</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-10240868.48983891</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-10240868.48983891</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-10374818.68873891</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-10344541.88643891</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-10326827.86633891</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-10750988.00323891</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-10820237.10003891</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-10809710.52833891</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-10809710.52833891</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-10829970.52833891</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-10829705.52833891</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-9837422.576007834</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-9611954.775507834</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
